--- a/ExcelInputSheet_M2.xlsx
+++ b/ExcelInputSheet_M2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A92C0-6168-4B4A-AB8A-72B8DA05C60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315CAEAD-E51A-4678-9FCD-1398F73A9FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="229">
   <si>
     <t>TEST_SCRIPT_UNIQUE_IDENTIFIER</t>
   </si>
@@ -743,6 +743,9 @@
   </si>
   <si>
     <t>CWS_MANUAL_URL</t>
+  </si>
+  <si>
+    <t>https://www.cdss.ca.gov/inforesources/letters-regulations/legislation-and-regulations</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1275,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1323,10 +1326,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
@@ -1341,6 +1344,29 @@
         <v>52</v>
       </c>
       <c r="L2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1351,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C3F614-783A-4C4F-9E94-A1C236065EAF}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="C2" sqref="C2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1420,10 +1446,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
@@ -1478,61 +1504,120 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
         <v>141</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2877,7 +2962,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3234,10 +3319,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3282,10 +3367,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
@@ -3306,8 +3391,38 @@
         <v>86</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3315,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:AY8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4546,10 +4661,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0055F16-CC4A-47BD-AB15-8879FF617B76}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="C2" sqref="C2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4610,11 +4725,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
@@ -4653,6 +4768,53 @@
         <v>55</v>
       </c>
       <c r="O2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
         <v>55</v>
       </c>
     </row>

--- a/ExcelInputSheet_M2.xlsx
+++ b/ExcelInputSheet_M2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315CAEAD-E51A-4678-9FCD-1398F73A9FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A86D4D2-1F00-4565-BDD0-E9420A2FCA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="10" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -325,9 +325,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>APPROVAL_AUDIT_HISTORY</t>
-  </si>
-  <si>
     <t>SCREENING_HISTORY</t>
   </si>
   <si>
@@ -746,6 +743,9 @@
   </si>
   <si>
     <t>https://www.cdss.ca.gov/inforesources/letters-regulations/legislation-and-regulations</t>
+  </si>
+  <si>
+    <t>APPROVAL_AUDIT_HISTORY_LEFT_NAV</t>
   </si>
 </sst>
 </file>
@@ -1251,16 +1251,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
         <v>75</v>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1294,34 +1294,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>118</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>119</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>121</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>123</v>
-      </c>
-      <c r="L1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1335,7 +1335,7 @@
         <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
@@ -1358,7 +1358,7 @@
         <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
         <v>86</v>
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:S2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1393,55 +1393,55 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>128</v>
-      </c>
-      <c r="F1" t="s">
-        <v>129</v>
       </c>
       <c r="G1" t="s">
         <v>24</v>
       </c>
       <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
         <v>130</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>131</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>132</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>133</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" t="s">
         <v>134</v>
       </c>
-      <c r="M1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>135</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>136</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>137</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>138</v>
-      </c>
-      <c r="S1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -1455,7 +1455,7 @@
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
@@ -1514,7 +1514,7 @@
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
@@ -1573,7 +1573,7 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -1659,43 +1659,43 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
         <v>143</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>144</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>145</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>146</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>147</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>148</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>149</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>150</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>151</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>152</v>
-      </c>
-      <c r="O1" t="s">
-        <v>153</v>
       </c>
       <c r="P1" t="s">
         <v>75</v>
@@ -1718,16 +1718,16 @@
         <v>56</v>
       </c>
       <c r="F2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" t="s">
         <v>154</v>
-      </c>
-      <c r="G2" t="s">
-        <v>155</v>
       </c>
       <c r="H2" t="s">
         <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>20</v>
@@ -1736,13 +1736,13 @@
         <v>56</v>
       </c>
       <c r="L2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" t="s">
         <v>157</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>158</v>
-      </c>
-      <c r="N2" t="s">
-        <v>159</v>
       </c>
       <c r="O2" t="s">
         <v>56</v>
@@ -1967,16 +1967,16 @@
         <v>56</v>
       </c>
       <c r="F7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" t="s">
         <v>154</v>
-      </c>
-      <c r="G7" t="s">
-        <v>155</v>
       </c>
       <c r="H7" t="s">
         <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>20</v>
@@ -1985,13 +1985,13 @@
         <v>56</v>
       </c>
       <c r="L7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" t="s">
         <v>157</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>158</v>
-      </c>
-      <c r="N7" t="s">
-        <v>159</v>
       </c>
       <c r="O7" t="s">
         <v>56</v>
@@ -2024,31 +2024,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>161</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>162</v>
-      </c>
-      <c r="F1" t="s">
-        <v>163</v>
       </c>
       <c r="G1" t="s">
         <v>42</v>
       </c>
       <c r="H1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" t="s">
         <v>164</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>165</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>166</v>
-      </c>
-      <c r="K1" t="s">
-        <v>167</v>
       </c>
       <c r="L1" t="s">
         <v>46</v>
@@ -2068,10 +2068,10 @@
         <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
         <v>62</v>
@@ -2120,37 +2120,37 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" t="s">
         <v>144</v>
       </c>
-      <c r="E1" t="s">
-        <v>145</v>
-      </c>
       <c r="F1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" t="s">
         <v>169</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>147</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>170</v>
       </c>
-      <c r="I1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" t="s">
-        <v>171</v>
-      </c>
       <c r="K1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M1" t="s">
         <v>75</v>
       </c>
       <c r="N1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -2161,19 +2161,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" t="s">
         <v>154</v>
-      </c>
-      <c r="E2" t="s">
-        <v>155</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
       <c r="G2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" t="s">
         <v>173</v>
-      </c>
-      <c r="H2" t="s">
-        <v>174</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>20</v>
@@ -2182,10 +2182,10 @@
         <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -2282,19 +2282,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" t="s">
         <v>154</v>
-      </c>
-      <c r="E5" t="s">
-        <v>155</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
       </c>
       <c r="G5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" t="s">
         <v>173</v>
-      </c>
-      <c r="H5" t="s">
-        <v>174</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>20</v>
@@ -2303,10 +2303,10 @@
         <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2343,25 +2343,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s">
         <v>176</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
         <v>177</v>
-      </c>
-      <c r="E1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" t="s">
-        <v>178</v>
       </c>
       <c r="G1" t="s">
         <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -2410,22 +2410,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
         <v>181</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>182</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>183</v>
-      </c>
-      <c r="F1" t="s">
-        <v>184</v>
       </c>
       <c r="G1" t="s">
         <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -2450,7 +2450,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -2611,58 +2611,58 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" t="s">
         <v>189</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>190</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" t="s">
         <v>191</v>
       </c>
-      <c r="H1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>192</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>193</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>194</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>195</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>196</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
-        <v>184</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>198</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>199</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>200</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>201</v>
-      </c>
-      <c r="T1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -2732,10 +2732,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -2755,7 +2755,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -2983,19 +2983,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" t="s">
         <v>204</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>205</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>206</v>
-      </c>
-      <c r="G1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -3009,7 +3009,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
         <v>56</v>
@@ -3139,16 +3139,16 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E1" t="s">
         <v>75</v>
       </c>
       <c r="F1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" t="s">
         <v>209</v>
-      </c>
-      <c r="G1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -3211,22 +3211,22 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
         <v>75</v>
       </c>
       <c r="F1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" t="s">
         <v>212</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>213</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>214</v>
-      </c>
-      <c r="I1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -3243,10 +3243,10 @@
         <v>52</v>
       </c>
       <c r="G2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" t="s">
         <v>216</v>
-      </c>
-      <c r="H2" t="s">
-        <v>217</v>
       </c>
       <c r="I2" t="s">
         <v>52</v>
@@ -3283,16 +3283,16 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E1" t="s">
         <v>75</v>
       </c>
       <c r="F1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" t="s">
         <v>219</v>
-      </c>
-      <c r="G1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -3344,25 +3344,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" t="s">
         <v>221</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>222</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>223</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>224</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>225</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>226</v>
-      </c>
-      <c r="I1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -3417,7 +3417,7 @@
         <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3430,7 +3430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:AY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4664,7 +4664,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:O2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4685,43 +4685,43 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>96</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>97</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>98</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>99</v>
-      </c>
-      <c r="O1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -4852,7 +4852,7 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
         <v>41</v>
@@ -4864,7 +4864,7 @@
         <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -5007,22 +5007,22 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>105</v>
-      </c>
-      <c r="G1" t="s">
-        <v>106</v>
       </c>
       <c r="H1" t="s">
         <v>75</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -5033,10 +5033,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
         <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
@@ -5118,10 +5118,10 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
         <v>108</v>
-      </c>
-      <c r="E5" t="s">
-        <v>109</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -5140,10 +5140,10 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
         <v>108</v>
-      </c>
-      <c r="E6" t="s">
-        <v>109</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -5156,10 +5156,10 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
         <v>108</v>
-      </c>
-      <c r="E7" t="s">
-        <v>109</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
@@ -5202,13 +5202,13 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
         <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -5219,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>

--- a/ExcelInputSheet_M2.xlsx
+++ b/ExcelInputSheet_M2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A86D4D2-1F00-4565-BDD0-E9420A2FCA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0159A189-1108-4AC5-962A-BBB056F4144F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="10" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="233">
   <si>
     <t>TEST_SCRIPT_UNIQUE_IDENTIFIER</t>
   </si>
@@ -433,9 +433,6 @@
     <t>UPLOAD_FILES</t>
   </si>
   <si>
-    <t>Download</t>
-  </si>
-  <si>
     <t>HISTORY_LEFT_NAV</t>
   </si>
   <si>
@@ -742,17 +739,32 @@
     <t>CWS_MANUAL_URL</t>
   </si>
   <si>
-    <t>https://www.cdss.ca.gov/inforesources/letters-regulations/legislation-and-regulations</t>
-  </si>
-  <si>
     <t>APPROVAL_AUDIT_HISTORY_LEFT_NAV</t>
+  </si>
+  <si>
+    <t>https://www.cdss.ca.gov/inforesources/letters-regulations/legislation-and-regulations/child-welfare-services-regulations</t>
+  </si>
+  <si>
+    <t>PRINT</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>UPDATE STATUS</t>
+  </si>
+  <si>
+    <t>UPLOAD NEW VERSION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,6 +796,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -802,18 +822,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1278,15 +1301,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1306,25 +1329,40 @@
         <v>117</v>
       </c>
       <c r="G1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>120</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>121</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>122</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1335,19 +1373,19 @@
         <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" t="s">
         <v>86</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="L2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1358,15 +1396,15 @@
         <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Q3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1393,34 +1431,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>127</v>
-      </c>
-      <c r="F1" t="s">
-        <v>128</v>
       </c>
       <c r="G1" t="s">
         <v>24</v>
       </c>
       <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
         <v>129</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>131</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>132</v>
-      </c>
-      <c r="L1" t="s">
-        <v>133</v>
       </c>
       <c r="M1" t="s">
         <v>102</v>
@@ -1429,19 +1467,19 @@
         <v>103</v>
       </c>
       <c r="O1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" t="s">
         <v>134</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>136</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>137</v>
-      </c>
-      <c r="S1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -1455,7 +1493,7 @@
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
@@ -1514,7 +1552,7 @@
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
@@ -1573,7 +1611,7 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -1659,43 +1697,43 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
         <v>142</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>143</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>144</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>145</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>146</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>147</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>148</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>149</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>150</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>151</v>
-      </c>
-      <c r="O1" t="s">
-        <v>152</v>
       </c>
       <c r="P1" t="s">
         <v>75</v>
@@ -1718,16 +1756,16 @@
         <v>56</v>
       </c>
       <c r="F2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" t="s">
         <v>153</v>
-      </c>
-      <c r="G2" t="s">
-        <v>154</v>
       </c>
       <c r="H2" t="s">
         <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>20</v>
@@ -1736,13 +1774,13 @@
         <v>56</v>
       </c>
       <c r="L2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2" t="s">
         <v>156</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>157</v>
-      </c>
-      <c r="N2" t="s">
-        <v>158</v>
       </c>
       <c r="O2" t="s">
         <v>56</v>
@@ -1967,16 +2005,16 @@
         <v>56</v>
       </c>
       <c r="F7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" t="s">
         <v>153</v>
-      </c>
-      <c r="G7" t="s">
-        <v>154</v>
       </c>
       <c r="H7" t="s">
         <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>20</v>
@@ -1985,13 +2023,13 @@
         <v>56</v>
       </c>
       <c r="L7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M7" t="s">
         <v>156</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>157</v>
-      </c>
-      <c r="N7" t="s">
-        <v>158</v>
       </c>
       <c r="O7" t="s">
         <v>56</v>
@@ -2024,31 +2062,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>160</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>161</v>
-      </c>
-      <c r="F1" t="s">
-        <v>162</v>
       </c>
       <c r="G1" t="s">
         <v>42</v>
       </c>
       <c r="H1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" t="s">
         <v>163</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>164</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>165</v>
-      </c>
-      <c r="K1" t="s">
-        <v>166</v>
       </c>
       <c r="L1" t="s">
         <v>46</v>
@@ -2068,10 +2106,10 @@
         <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L2" t="s">
         <v>62</v>
@@ -2120,37 +2158,37 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" t="s">
-        <v>144</v>
-      </c>
       <c r="F1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
         <v>168</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>146</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>169</v>
       </c>
-      <c r="I1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" t="s">
-        <v>170</v>
-      </c>
       <c r="K1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M1" t="s">
         <v>75</v>
       </c>
       <c r="N1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -2161,19 +2199,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" t="s">
         <v>153</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
       <c r="G2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" t="s">
         <v>172</v>
-      </c>
-      <c r="H2" t="s">
-        <v>173</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>20</v>
@@ -2182,10 +2220,10 @@
         <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -2282,19 +2320,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" t="s">
         <v>153</v>
-      </c>
-      <c r="E5" t="s">
-        <v>154</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
       </c>
       <c r="G5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" t="s">
         <v>172</v>
-      </c>
-      <c r="H5" t="s">
-        <v>173</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>20</v>
@@ -2303,10 +2341,10 @@
         <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2343,16 +2381,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" t="s">
         <v>175</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" t="s">
         <v>176</v>
-      </c>
-      <c r="E1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" t="s">
-        <v>177</v>
       </c>
       <c r="G1" t="s">
         <v>75</v>
@@ -2361,7 +2399,7 @@
         <v>98</v>
       </c>
       <c r="I1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -2372,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -2410,22 +2448,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
         <v>180</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>181</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>182</v>
-      </c>
-      <c r="F1" t="s">
-        <v>183</v>
       </c>
       <c r="G1" t="s">
         <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -2450,7 +2488,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2470,7 +2508,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -2611,58 +2649,58 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" t="s">
         <v>188</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>189</v>
-      </c>
-      <c r="G1" t="s">
-        <v>190</v>
       </c>
       <c r="H1" t="s">
         <v>98</v>
       </c>
       <c r="I1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" t="s">
         <v>191</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>192</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>193</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>194</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>195</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" t="s">
         <v>196</v>
       </c>
-      <c r="O1" t="s">
-        <v>183</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>198</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>199</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>200</v>
-      </c>
-      <c r="T1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -2732,10 +2770,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -2755,7 +2793,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2770,7 +2808,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -2983,19 +3021,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
         <v>203</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>204</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>205</v>
-      </c>
-      <c r="G1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -3009,7 +3047,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3018,7 +3056,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -3072,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
         <v>56</v>
@@ -3139,16 +3177,16 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E1" t="s">
         <v>75</v>
       </c>
       <c r="F1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" t="s">
         <v>208</v>
-      </c>
-      <c r="G1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -3211,22 +3249,22 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E1" t="s">
         <v>75</v>
       </c>
       <c r="F1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" t="s">
         <v>211</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>212</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>213</v>
-      </c>
-      <c r="I1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -3243,10 +3281,10 @@
         <v>52</v>
       </c>
       <c r="G2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" t="s">
         <v>215</v>
-      </c>
-      <c r="H2" t="s">
-        <v>216</v>
       </c>
       <c r="I2" t="s">
         <v>52</v>
@@ -3283,16 +3321,16 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
         <v>75</v>
       </c>
       <c r="F1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" t="s">
         <v>218</v>
-      </c>
-      <c r="G1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -3322,7 +3360,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3344,25 +3382,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>220</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>221</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>222</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>223</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>224</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>225</v>
-      </c>
-      <c r="I1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -3416,13 +3454,16 @@
       <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>227</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{FA9E8C67-8F0D-4E91-BA7D-A38F1AF78305}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3431,7 +3472,7 @@
   <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4664,7 +4705,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4685,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D1" t="s">
         <v>88</v>
